--- a/Data_frame/balancos_definitivos/AMIL3.xlsx
+++ b/Data_frame/balancos_definitivos/AMIL3.xlsx
@@ -4602,7 +4602,7 @@
         <v>1242264.064</v>
       </c>
       <c r="L57" t="n">
-        <v>1455967.744</v>
+        <v>1455967.872</v>
       </c>
       <c r="M57" t="n">
         <v>1856979.968</v>
@@ -4613,30 +4613,14 @@
       <c r="O57" t="n">
         <v>1988715.008</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4686,30 +4670,14 @@
       <c r="O58" t="n">
         <v>-47477</v>
       </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4736,7 +4704,7 @@
         <v>1108401.024</v>
       </c>
       <c r="H59" t="n">
-        <v>1180532.736</v>
+        <v>1180532.864</v>
       </c>
       <c r="I59" t="n">
         <v>1091245.952</v>
@@ -4748,7 +4716,7 @@
         <v>1213171.968</v>
       </c>
       <c r="L59" t="n">
-        <v>1425339.904</v>
+        <v>1425340.16</v>
       </c>
       <c r="M59" t="n">
         <v>1815933.952</v>
@@ -4780,9 +4748,7 @@
       <c r="V59" t="n">
         <v>2548151.04</v>
       </c>
-      <c r="W59" t="n">
-        <v>-3575397.376</v>
-      </c>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4833,7 +4799,7 @@
         <v>-1439506.048</v>
       </c>
       <c r="P60" t="n">
-        <v>-1491472.896</v>
+        <v>-1491473.024</v>
       </c>
       <c r="Q60" t="n">
         <v>-1465195.008</v>
@@ -4853,9 +4819,7 @@
       <c r="V60" t="n">
         <v>-1925917.952</v>
       </c>
-      <c r="W60" t="n">
-        <v>2465888.256</v>
-      </c>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4906,7 +4870,7 @@
         <v>501732</v>
       </c>
       <c r="P61" t="n">
-        <v>515000.96</v>
+        <v>515001.024</v>
       </c>
       <c r="Q61" t="n">
         <v>624593.9840000001</v>
@@ -4926,9 +4890,7 @@
       <c r="V61" t="n">
         <v>622233.024</v>
       </c>
-      <c r="W61" t="n">
-        <v>-1109509.12</v>
-      </c>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4979,7 +4941,7 @@
         <v>-99181</v>
       </c>
       <c r="P62" t="n">
-        <v>-107740</v>
+        <v>-107739.992</v>
       </c>
       <c r="Q62" t="n">
         <v>-108611</v>
@@ -4991,7 +4953,7 @@
         <v>-110286</v>
       </c>
       <c r="T62" t="n">
-        <v>-117904.992</v>
+        <v>-117905</v>
       </c>
       <c r="U62" t="n">
         <v>-112906</v>
@@ -4999,9 +4961,7 @@
       <c r="V62" t="n">
         <v>-120074</v>
       </c>
-      <c r="W62" t="n">
-        <v>161036.992</v>
-      </c>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5028,7 +4988,7 @@
         <v>-203171.008</v>
       </c>
       <c r="H63" t="n">
-        <v>-161769.984</v>
+        <v>-161770.016</v>
       </c>
       <c r="I63" t="n">
         <v>-183919.008</v>
@@ -5064,7 +5024,7 @@
         <v>-387811.008</v>
       </c>
       <c r="T63" t="n">
-        <v>-409462.912</v>
+        <v>-409462.944</v>
       </c>
       <c r="U63" t="n">
         <v>-384779.008</v>
@@ -5072,9 +5032,7 @@
       <c r="V63" t="n">
         <v>-403489.984</v>
       </c>
-      <c r="W63" t="n">
-        <v>318396.032</v>
-      </c>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5082,51 +5040,21 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
@@ -5145,9 +5073,7 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5218,9 +5144,7 @@
       <c r="V65" t="n">
         <v>9387</v>
       </c>
-      <c r="W65" t="n">
-        <v>-81966</v>
-      </c>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5291,9 +5215,7 @@
       <c r="V66" t="n">
         <v>-34624</v>
       </c>
-      <c r="W66" t="n">
-        <v>88874.992</v>
-      </c>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5364,9 +5286,7 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5437,9 +5357,7 @@
       <c r="V68" t="n">
         <v>-21406</v>
       </c>
-      <c r="W68" t="n">
-        <v>23721</v>
-      </c>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5510,9 +5428,7 @@
       <c r="V69" t="n">
         <v>40951</v>
       </c>
-      <c r="W69" t="n">
-        <v>-109943.008</v>
-      </c>
+      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5583,9 +5499,7 @@
       <c r="V70" t="n">
         <v>-62357</v>
       </c>
-      <c r="W70" t="n">
-        <v>133664.016</v>
-      </c>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5635,30 +5549,14 @@
       <c r="O71" t="n">
         <v>0</v>
       </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5708,30 +5606,14 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5781,30 +5663,14 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5875,9 +5741,7 @@
       <c r="V74" t="n">
         <v>52026</v>
       </c>
-      <c r="W74" t="n">
-        <v>-599446.0159999999</v>
-      </c>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5948,9 +5812,7 @@
       <c r="V75" t="n">
         <v>-9214</v>
       </c>
-      <c r="W75" t="n">
-        <v>67311</v>
-      </c>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6021,9 +5883,7 @@
       <c r="V76" t="n">
         <v>-7791</v>
       </c>
-      <c r="W76" t="n">
-        <v>69430</v>
-      </c>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6073,30 +5933,14 @@
       <c r="O77" t="n">
         <v>8</v>
       </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6146,30 +5990,14 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6240,9 +6068,7 @@
       <c r="V79" t="n">
         <v>58</v>
       </c>
-      <c r="W79" t="n">
-        <v>3006</v>
-      </c>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6305,7 +6131,7 @@
         <v>35988</v>
       </c>
       <c r="T80" t="n">
-        <v>29816</v>
+        <v>29815.992</v>
       </c>
       <c r="U80" t="n">
         <v>88354</v>
@@ -6313,9 +6139,7 @@
       <c r="V80" t="n">
         <v>35079</v>
       </c>
-      <c r="W80" t="n">
-        <v>-459698.976</v>
-      </c>
+      <c r="W80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
